--- a/lab03/ПФЭ.xlsx
+++ b/lab03/ПФЭ.xlsx
@@ -539,17 +539,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.032</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.033</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -599,27 +599,27 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.093</t>
+          <t>0.087</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.111</t>
+          <t>0.096</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.009</t>
         </is>
       </c>
     </row>
@@ -659,27 +659,27 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.097</t>
+          <t>0.094</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.101</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.018</t>
+          <t>0.022</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.008</t>
         </is>
       </c>
     </row>
@@ -719,27 +719,27 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.248</t>
+          <t>0.201</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.108</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.216</t>
+          <t>0.183</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.127</t>
+          <t>0.093</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.019</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.013</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -789,17 +789,17 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.013</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.010</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -899,27 +899,27 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.028</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -959,27 +959,27 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.067</t>
+          <t>0.071</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.068</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.088</t>
+          <t>0.081</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.010</t>
         </is>
       </c>
     </row>
@@ -1019,27 +1019,27 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.014</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>0.008</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.020</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>0.006</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.021</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.010</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.032</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.005</t>
         </is>
       </c>
     </row>
@@ -1139,27 +1139,27 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.072</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>0.034</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0.079</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0.029</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.003</t>
         </is>
       </c>
     </row>
@@ -1204,22 +1204,22 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.108</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.044</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.014</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1269,17 +1269,17 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.021</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.015</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.004</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1379,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.028</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.005</t>
         </is>
       </c>
     </row>
@@ -1439,27 +1439,27 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.026</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.068</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.018</t>
+          <t>0.021</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.005</t>
         </is>
       </c>
     </row>
